--- a/slides/dbExample.xlsx
+++ b/slides/dbExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xdai/GoogleDrive/Teaching/UCB/PBHLTH 290 2022 Fall/source/_slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D91828-9F6A-244A-8DAE-9CF9D7E368CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C67E4-AF40-664A-B70D-996F6BCFB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{57CA6AAF-B248-9346-94E5-2F09C0481254}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Admission:</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Joined:</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Patient:</t>
   </si>
 </sst>
 </file>
@@ -152,11 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1792DAAC-632A-224F-A057-AE22D1A8B6B5}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,6 +830,55 @@
         <v>6</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4">
+        <v>70923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <v>69554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10013</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>50651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
